--- a/medicine/Psychotrope/Hyper_Text_Coffee_Pot_Control_Protocol/Hyper_Text_Coffee_Pot_Control_Protocol.xlsx
+++ b/medicine/Psychotrope/Hyper_Text_Coffee_Pot_Control_Protocol/Hyper_Text_Coffee_Pot_Control_Protocol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hyper Text Coffee Pot Control Protocol ou HTCPCP — de l'anglais signifiant littéralement « protocole hypertexte de gestion de cafetière » — est une proposition humoristique de protocole de communication client-serveur permettant le contrôle, la surveillance et le diagnostic de cafetière.
-HTCPCP est décrit dans la RFC 2324[1] publié le 1er avril 1998[2] et bien que cette RFC soit un poisson d'avril, elle est suffisamment bien décrite pour être implémentée : l'éditeur de texte Emacs possède d'ailleurs une extension[3] permettant de générer des requêtes d'infusion via HTCPCP.
-Il existe également un rapport de bug sur bugzilla qui déplore l'absence de support du protocole dans la suite Mozilla[4].
-Le 1er avril 2008, 10 ans après la publication d'HTCPCP, un Web-Controlled Coffee Consortium (WC3) imaginaire publie une première version de la description du vocabulaire RDF[5] en imitation du World Wide Web Consortium (W3C) et de son propre HTTP Vocabulary in RDF[6].
-Le 1er avril 2014, la RFC 7168[7] étend le protocole à l'infusion du thé, sous le nom Hyper Text Coffee Pot Control Protocol for Tea Efflux Appliances (HTCPCP-TEA).
+HTCPCP est décrit dans la RFC 2324 publié le 1er avril 1998 et bien que cette RFC soit un poisson d'avril, elle est suffisamment bien décrite pour être implémentée : l'éditeur de texte Emacs possède d'ailleurs une extension permettant de générer des requêtes d'infusion via HTCPCP.
+Il existe également un rapport de bug sur bugzilla qui déplore l'absence de support du protocole dans la suite Mozilla.
+Le 1er avril 2008, 10 ans après la publication d'HTCPCP, un Web-Controlled Coffee Consortium (WC3) imaginaire publie une première version de la description du vocabulaire RDF en imitation du World Wide Web Consortium (W3C) et de son propre HTTP Vocabulary in RDF.
+Le 1er avril 2014, la RFC 7168 étend le protocole à l'infusion du thé, sous le nom Hyper Text Coffee Pot Control Protocol for Tea Efflux Appliances (HTCPCP-TEA).
 </t>
         </is>
       </c>
@@ -516,16 +528,11 @@
           <t>Description du protocole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">HTCPCP est une extension du protocole HTTP dont les requêtes sont identifiées par le schéma d'URI coffee: (ou le nom du café dans l'une des 29 langues listées dans la RFC : afrikaans, allemand, anglais, arabe, azéri, basque, bengali, bosnien, bulgare, catalan, chinois, coréen, croate, danois, espéranto, estonien, finnois, français, galicien, grec, hindi, japonais, néerlandais, norvégien, russe, suédois, tchèque, thaï).
-Méthodes
-Les méthodes ajoutées sont les suivantes :
-Champs d'en-tête
-De plus, afin de définir la préparation suivant les possibilités de la cafetière, un champ d'en-tête est également ajouté : Accept-Additions. Les valeurs possibles sont les suivantes :
-Volontairement, aucune option n'est définie pour le décaféiné, choix justifié par le commentaire : « quel est l'intérêt ? ».
-Codes d'erreur
-Enfin, deux codes d'erreur client sont définis :
 </t>
         </is>
       </c>
@@ -551,10 +558,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description du protocole</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Méthodes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthodes ajoutées sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description du protocole</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Champs d'en-tête</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De plus, afin de définir la préparation suivant les possibilités de la cafetière, un champ d'en-tête est également ajouté : Accept-Additions. Les valeurs possibles sont les suivantes :
+Volontairement, aucune option n'est définie pour le décaféiné, choix justifié par le commentaire : « quel est l'intérêt ? ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du protocole</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Codes d'erreur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfin, deux codes d'erreur client sont définis :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyper_Text_Coffee_Pot_Control_Protocol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reprises sur le web</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques sites ont depuis repris l'idée pour afficher des pages faisant référence à ce poisson d'avril. Google a par exemple créé une page affichant une théière sur laquelle il est possible de cliquer pour verser. Sur la version mobile, il suffit de pencher l'appareil pour verser le thé dans la tasse.
 </t>
